--- a/data/Label0.xlsx
+++ b/data/Label0.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B54E3CD-C601-4C50-B4F2-473F505DA79A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7908" yWindow="1608" windowWidth="13884" windowHeight="11436" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t>link</t>
   </si>
   <si>
+    <t>vk_id</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>https://vk.com/johnmonakhov</t>
   </si>
   <si>
@@ -254,14 +254,253 @@
   </si>
   <si>
     <t>https://vk.com/zendaltsev</t>
+  </si>
+  <si>
+    <t>johnmonakhov</t>
+  </si>
+  <si>
+    <t>vladlenfootball</t>
+  </si>
+  <si>
+    <t>feddamn</t>
+  </si>
+  <si>
+    <t>smgfmrwgm</t>
+  </si>
+  <si>
+    <t>fedyafedyagg</t>
+  </si>
+  <si>
+    <t>id181158751</t>
+  </si>
+  <si>
+    <t>id170214425</t>
+  </si>
+  <si>
+    <t>id120692953</t>
+  </si>
+  <si>
+    <t>kalmukovdanya</t>
+  </si>
+  <si>
+    <t>id25624600</t>
+  </si>
+  <si>
+    <t>d.bakushkin</t>
+  </si>
+  <si>
+    <t>id223542402</t>
+  </si>
+  <si>
+    <t>daniil_orlov2001</t>
+  </si>
+  <si>
+    <t>dominos.pizza</t>
+  </si>
+  <si>
+    <t>pavel.galyvus</t>
+  </si>
+  <si>
+    <t>egrman</t>
+  </si>
+  <si>
+    <t>albertmair</t>
+  </si>
+  <si>
+    <t>id73370924</t>
+  </si>
+  <si>
+    <t>starevge</t>
+  </si>
+  <si>
+    <t>dariamsl</t>
+  </si>
+  <si>
+    <t>vmaslov99</t>
+  </si>
+  <si>
+    <t>id195695465</t>
+  </si>
+  <si>
+    <t>dmyatnaya0</t>
+  </si>
+  <si>
+    <t>id509776530</t>
+  </si>
+  <si>
+    <t>katya_rutskaya</t>
+  </si>
+  <si>
+    <t>savinvlad</t>
+  </si>
+  <si>
+    <t>drushadrusha</t>
+  </si>
+  <si>
+    <t>id65548540</t>
+  </si>
+  <si>
+    <t>floatlikeafeather</t>
+  </si>
+  <si>
+    <t>id233116350</t>
+  </si>
+  <si>
+    <t>sikoka55</t>
+  </si>
+  <si>
+    <t>m.s.v.inkognito</t>
+  </si>
+  <si>
+    <t>id200368628</t>
+  </si>
+  <si>
+    <t>alishowa</t>
+  </si>
+  <si>
+    <t>maiia_sakh</t>
+  </si>
+  <si>
+    <t>id437690443</t>
+  </si>
+  <si>
+    <t>orestruzak</t>
+  </si>
+  <si>
+    <t>lapabeast</t>
+  </si>
+  <si>
+    <t>msmelkov</t>
+  </si>
+  <si>
+    <t>id161450861</t>
+  </si>
+  <si>
+    <t>nehaev_nikita</t>
+  </si>
+  <si>
+    <t>quairex</t>
+  </si>
+  <si>
+    <t>idliverpool290699</t>
+  </si>
+  <si>
+    <t>zver_2000</t>
+  </si>
+  <si>
+    <t>id183606283</t>
+  </si>
+  <si>
+    <t>mironova2121</t>
+  </si>
+  <si>
+    <t>iloveyouifyouarepark</t>
+  </si>
+  <si>
+    <t>a.mylnikov2013</t>
+  </si>
+  <si>
+    <t>id206605786</t>
+  </si>
+  <si>
+    <t>id185993345</t>
+  </si>
+  <si>
+    <t>id404372285</t>
+  </si>
+  <si>
+    <t>gleb4you</t>
+  </si>
+  <si>
+    <t>sheva24</t>
+  </si>
+  <si>
+    <t>saidash229</t>
+  </si>
+  <si>
+    <t>idchabchik_nose_chebchik</t>
+  </si>
+  <si>
+    <t>mamerzlikina</t>
+  </si>
+  <si>
+    <t>mi5hgan</t>
+  </si>
+  <si>
+    <t>zhukovmaxiiim</t>
+  </si>
+  <si>
+    <t>bozhikk</t>
+  </si>
+  <si>
+    <t>gleboffka</t>
+  </si>
+  <si>
+    <t>id164809208</t>
+  </si>
+  <si>
+    <t>simptom03</t>
+  </si>
+  <si>
+    <t>vkokorin</t>
+  </si>
+  <si>
+    <t>id162027272</t>
+  </si>
+  <si>
+    <t>katia_t</t>
+  </si>
+  <si>
+    <t>id133803531</t>
+  </si>
+  <si>
+    <t>id59277677</t>
+  </si>
+  <si>
+    <t>id159048079</t>
+  </si>
+  <si>
+    <t>valerysappa</t>
+  </si>
+  <si>
+    <t>id146360309</t>
+  </si>
+  <si>
+    <t>id139437621</t>
+  </si>
+  <si>
+    <t>ruslana1209</t>
+  </si>
+  <si>
+    <t>kfedchuk0</t>
+  </si>
+  <si>
+    <t>ariniann</t>
+  </si>
+  <si>
+    <t>id138549663</t>
+  </si>
+  <si>
+    <t>akobetsss</t>
+  </si>
+  <si>
+    <t>zendaltsev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -274,7 +513,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,7 +523,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,29 +531,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -330,44 +581,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -394,15 +645,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -429,7 +679,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,549 +690,1345 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>179105361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>214759921</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>299671503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5">
+        <v>144782582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6">
+        <v>135273579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7">
+        <v>181158751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8">
+        <v>170214425</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
+        <v>120692953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>11053055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11">
+        <v>25624600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>172929159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13">
+        <v>223542402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14">
+        <v>278720394</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>342950705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16">
+        <v>369845975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>172729235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18">
+        <v>162683820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>73370924</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20">
+        <v>69440905</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="C21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21">
+        <v>89686504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>171276232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23">
+        <v>195695465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="C24" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24">
+        <v>437318616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="C25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25">
+        <v>509776530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26">
+        <v>74322765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27">
+        <v>11212672</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28">
+        <v>11864479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29">
+        <v>65548540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30">
+        <v>91651409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31">
+        <v>233116350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32">
+        <v>52821269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33">
+        <v>93271442</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34">
+        <v>200368628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35">
+        <v>185404411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36">
+        <v>321738254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37">
+        <v>437690443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38">
+        <v>62116431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39">
+        <v>121612484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <v>94716510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41">
+        <v>161450861</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42">
+        <v>202114163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43">
+        <v>152959504</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44">
+        <v>314557795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>150911388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46">
+        <v>183606283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="C47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47">
+        <v>187372129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48">
+        <v>123368819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="C49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D49">
+        <v>192216124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C50" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50">
+        <v>206605786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C51" t="s">
+        <v>129</v>
+      </c>
+      <c r="D51">
+        <v>185993345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52">
+        <v>404372285</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53">
+        <v>295519770</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54">
+        <v>120929186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55">
+        <v>160642273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56">
+        <v>255017423</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57">
+        <v>159352789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="C58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58">
+        <v>53796935</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C59" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59">
+        <v>205552976</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C60" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60">
+        <v>408324372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61">
+        <v>137371541</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62">
+        <v>164809208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D63">
+        <v>108823156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64">
+        <v>56613</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="D65">
+        <v>162027272</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66">
+        <v>278114198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="C67" t="s">
+        <v>145</v>
+      </c>
+      <c r="D67">
+        <v>133803531</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C68" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68">
+        <v>59277677</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="C69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69">
+        <v>159048079</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="C70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70">
+        <v>78349607</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C71" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71">
+        <v>146360309</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72">
+        <v>139437621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73">
+        <v>293842445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74">
+        <v>181607468</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75">
+        <v>181705636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76">
+        <v>138549663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77">
+        <v>339890211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>156</v>
+      </c>
+      <c r="D78">
+        <v>450344370</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BE795DBA-AD91-4B85-AACF-262E2165DFEF}"/>
-    <hyperlink ref="A73" r:id="rId2" xr:uid="{91F991C2-043A-4193-9EB2-23A3D18E2BCB}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="B38" r:id="rId37"/>
+    <hyperlink ref="B39" r:id="rId38"/>
+    <hyperlink ref="B40" r:id="rId39"/>
+    <hyperlink ref="B41" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B43" r:id="rId42"/>
+    <hyperlink ref="B44" r:id="rId43"/>
+    <hyperlink ref="B45" r:id="rId44"/>
+    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B47" r:id="rId46"/>
+    <hyperlink ref="B48" r:id="rId47"/>
+    <hyperlink ref="B49" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B51" r:id="rId50"/>
+    <hyperlink ref="B52" r:id="rId51"/>
+    <hyperlink ref="B53" r:id="rId52"/>
+    <hyperlink ref="B54" r:id="rId53"/>
+    <hyperlink ref="B55" r:id="rId54"/>
+    <hyperlink ref="B56" r:id="rId55"/>
+    <hyperlink ref="B57" r:id="rId56"/>
+    <hyperlink ref="B58" r:id="rId57"/>
+    <hyperlink ref="B59" r:id="rId58"/>
+    <hyperlink ref="B60" r:id="rId59"/>
+    <hyperlink ref="B61" r:id="rId60"/>
+    <hyperlink ref="B62" r:id="rId61"/>
+    <hyperlink ref="B63" r:id="rId62"/>
+    <hyperlink ref="B64" r:id="rId63"/>
+    <hyperlink ref="B65" r:id="rId64"/>
+    <hyperlink ref="B66" r:id="rId65"/>
+    <hyperlink ref="B67" r:id="rId66"/>
+    <hyperlink ref="B68" r:id="rId67"/>
+    <hyperlink ref="B69" r:id="rId68"/>
+    <hyperlink ref="B70" r:id="rId69"/>
+    <hyperlink ref="B71" r:id="rId70"/>
+    <hyperlink ref="B72" r:id="rId71"/>
+    <hyperlink ref="B73" r:id="rId72"/>
+    <hyperlink ref="B74" r:id="rId73"/>
+    <hyperlink ref="B75" r:id="rId74"/>
+    <hyperlink ref="B76" r:id="rId75"/>
+    <hyperlink ref="B77" r:id="rId76"/>
+    <hyperlink ref="B78" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
